--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H2">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I2">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J2">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2063693333333333</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N2">
-        <v>0.619108</v>
+        <v>0.082249</v>
       </c>
       <c r="O2">
-        <v>0.05249514260861875</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P2">
-        <v>0.05463357984752036</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q2">
-        <v>3.986883958294222</v>
+        <v>0.3751691812282222</v>
       </c>
       <c r="R2">
-        <v>35.88195562464799</v>
+        <v>3.376522631054</v>
       </c>
       <c r="S2">
-        <v>0.005235828142221302</v>
+        <v>0.000479990331494231</v>
       </c>
       <c r="T2">
-        <v>0.005532538579239664</v>
+        <v>0.0005064961370601848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H3">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I3">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J3">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.776603999999999</v>
       </c>
       <c r="O3">
-        <v>0.8289736543672389</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P3">
-        <v>0.8627426479250582</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q3">
-        <v>62.95862055440266</v>
+        <v>44.59483419704266</v>
       </c>
       <c r="R3">
-        <v>566.6275849896239</v>
+        <v>401.3535077733839</v>
       </c>
       <c r="S3">
-        <v>0.08268124197806094</v>
+        <v>0.05705449786438527</v>
       </c>
       <c r="T3">
-        <v>0.08736672568267381</v>
+        <v>0.06020513513315846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H4">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I4">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J4">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.004351333333333333</v>
+        <v>0.5333405</v>
       </c>
       <c r="N4">
-        <v>0.013054</v>
+        <v>1.066681</v>
       </c>
       <c r="O4">
-        <v>0.001106869224130377</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P4">
-        <v>0.001151958545729551</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q4">
-        <v>0.08406414259155555</v>
+        <v>7.298310691954333</v>
       </c>
       <c r="R4">
-        <v>0.7565772833239999</v>
+        <v>43.78986415172599</v>
       </c>
       <c r="S4">
-        <v>0.0001103983482180118</v>
+        <v>0.009337436931548064</v>
       </c>
       <c r="T4">
-        <v>0.0001166545394557889</v>
+        <v>0.006568709722616626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.31916866666667</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H5">
-        <v>57.957506</v>
+        <v>382.104683</v>
       </c>
       <c r="I5">
-        <v>0.09973928790435696</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J5">
-        <v>0.1012662650824037</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4616195</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N5">
-        <v>0.923239</v>
+        <v>0.082249</v>
       </c>
       <c r="O5">
-        <v>0.117424333800012</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P5">
-        <v>0.0814718136816918</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q5">
-        <v>8.918104980322333</v>
+        <v>3.491969785785222</v>
       </c>
       <c r="R5">
-        <v>53.508629881934</v>
+        <v>31.427728072067</v>
       </c>
       <c r="S5">
-        <v>0.01171181943585672</v>
+        <v>0.004467615728881735</v>
       </c>
       <c r="T5">
-        <v>0.008250346281034404</v>
+        <v>0.004714324352125242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>382.104683</v>
       </c>
       <c r="I6">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J6">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2063693333333333</v>
+        <v>3.258868</v>
       </c>
       <c r="N6">
-        <v>0.619108</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O6">
-        <v>0.05249514260861875</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P6">
-        <v>0.05463357984752036</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q6">
-        <v>26.28489623141822</v>
+        <v>415.0762413596146</v>
       </c>
       <c r="R6">
-        <v>236.564066082764</v>
+        <v>3735.686172236532</v>
       </c>
       <c r="S6">
-        <v>0.03451898797242845</v>
+        <v>0.5310473052006478</v>
       </c>
       <c r="T6">
-        <v>0.03647515301996677</v>
+        <v>0.5603725555117393</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>382.104683</v>
       </c>
       <c r="I7">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J7">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.258868</v>
+        <v>0.5333405</v>
       </c>
       <c r="N7">
-        <v>9.776603999999999</v>
+        <v>1.066681</v>
       </c>
       <c r="O7">
-        <v>0.8289736543672389</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P7">
-        <v>0.8627426479250582</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q7">
-        <v>415.0762413596146</v>
+        <v>67.93063422785383</v>
       </c>
       <c r="R7">
-        <v>3735.686172236532</v>
+        <v>407.583805367123</v>
       </c>
       <c r="S7">
-        <v>0.5451043693300618</v>
+        <v>0.0869102508230975</v>
       </c>
       <c r="T7">
-        <v>0.5759950233491075</v>
+        <v>0.06113971251017404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>127.3682276666667</v>
+        <v>17.548286</v>
       </c>
       <c r="H8">
-        <v>382.104683</v>
+        <v>52.644858</v>
       </c>
       <c r="I8">
-        <v>0.6575653719009243</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J8">
-        <v>0.6676324912584374</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.004351333333333333</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N8">
-        <v>0.013054</v>
+        <v>0.082249</v>
       </c>
       <c r="O8">
-        <v>0.001106869224130377</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P8">
-        <v>0.001151958545729551</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q8">
-        <v>0.5542216146535555</v>
+        <v>0.4811096584046667</v>
       </c>
       <c r="R8">
-        <v>4.987994531882</v>
+        <v>4.329986925642</v>
       </c>
       <c r="S8">
-        <v>0.0007278388730109788</v>
+        <v>0.0006155302620186559</v>
       </c>
       <c r="T8">
-        <v>0.0007690849537118665</v>
+        <v>0.0006495207913575227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>127.3682276666667</v>
+        <v>17.548286</v>
       </c>
       <c r="H9">
-        <v>382.104683</v>
+        <v>52.644858</v>
       </c>
       <c r="I9">
-        <v>0.6575653719009243</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J9">
-        <v>0.6676324912584374</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4616195</v>
+        <v>3.258868</v>
       </c>
       <c r="N9">
-        <v>0.923239</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O9">
-        <v>0.117424333800012</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P9">
-        <v>0.0814718136816918</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q9">
-        <v>58.79565757137284</v>
+        <v>57.187547700248</v>
       </c>
       <c r="R9">
-        <v>352.773945428237</v>
+        <v>514.687929302232</v>
       </c>
       <c r="S9">
-        <v>0.0772141757254232</v>
+        <v>0.07316557796170942</v>
       </c>
       <c r="T9">
-        <v>0.05439322993565114</v>
+        <v>0.07720589389377525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H10">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I10">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J10">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2063693333333333</v>
+        <v>0.5333405</v>
       </c>
       <c r="N10">
-        <v>0.619108</v>
+        <v>1.066681</v>
       </c>
       <c r="O10">
-        <v>0.05249514260861875</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P10">
-        <v>0.05463357984752036</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q10">
-        <v>3.850391350017333</v>
+        <v>9.359211629383001</v>
       </c>
       <c r="R10">
-        <v>34.65352215015599</v>
+        <v>56.155269776298</v>
       </c>
       <c r="S10">
-        <v>0.005056577417320072</v>
+        <v>0.01197414744410853</v>
       </c>
       <c r="T10">
-        <v>0.005343129850775938</v>
+        <v>0.008423585542025235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.657769</v>
+        <v>3.726573</v>
       </c>
       <c r="H11">
-        <v>55.97330699999999</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I11">
-        <v>0.09632467245626405</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J11">
-        <v>0.0977993729440456</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.258868</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N11">
-        <v>9.776603999999999</v>
+        <v>0.082249</v>
       </c>
       <c r="O11">
-        <v>0.8289736543672389</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P11">
-        <v>0.8627426479250582</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q11">
-        <v>60.80320634549199</v>
+        <v>0.102168967559</v>
       </c>
       <c r="R11">
-        <v>547.2288571094278</v>
+        <v>0.613013805354</v>
       </c>
       <c r="S11">
-        <v>0.07985061573179654</v>
+        <v>0.000130714672368666</v>
       </c>
       <c r="T11">
-        <v>0.08437568997915619</v>
+        <v>9.195529196836573E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.657769</v>
+        <v>3.726573</v>
       </c>
       <c r="H12">
-        <v>55.97330699999999</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I12">
-        <v>0.09632467245626405</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J12">
-        <v>0.0977993729440456</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.004351333333333333</v>
+        <v>3.258868</v>
       </c>
       <c r="N12">
-        <v>0.013054</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O12">
-        <v>0.001106869224130377</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P12">
-        <v>0.001151958545729551</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q12">
-        <v>0.08118617217533332</v>
+        <v>12.144409499364</v>
       </c>
       <c r="R12">
-        <v>0.7306755495779998</v>
+        <v>72.86645699618398</v>
       </c>
       <c r="S12">
-        <v>0.0001066188154662777</v>
+        <v>0.01553752129190859</v>
       </c>
       <c r="T12">
-        <v>0.0001126608234298847</v>
+        <v>0.01093035143623743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.657769</v>
+        <v>3.726573</v>
       </c>
       <c r="H13">
-        <v>55.97330699999999</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I13">
-        <v>0.09632467245626405</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J13">
-        <v>0.0977993729440456</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4616195</v>
+        <v>0.5333405</v>
       </c>
       <c r="N13">
-        <v>0.923239</v>
+        <v>1.066681</v>
       </c>
       <c r="O13">
-        <v>0.117424333800012</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P13">
-        <v>0.0814718136816918</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q13">
-        <v>8.612789996895499</v>
+        <v>1.9875323071065</v>
       </c>
       <c r="R13">
-        <v>51.676739981373</v>
+        <v>7.950129228425999</v>
       </c>
       <c r="S13">
-        <v>0.01131086049168118</v>
+        <v>0.002542842905753523</v>
       </c>
       <c r="T13">
-        <v>0.007967892290683573</v>
+        <v>0.001192561159310245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.76216</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H14">
-        <v>17.52432</v>
+        <v>126.914872</v>
       </c>
       <c r="I14">
-        <v>0.04523650132067659</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J14">
-        <v>0.03061937196726285</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2063693333333333</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N14">
-        <v>0.619108</v>
+        <v>0.082249</v>
       </c>
       <c r="O14">
-        <v>0.05249514260861875</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P14">
-        <v>0.05463357984752036</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q14">
-        <v>1.80824111776</v>
+        <v>1.159846811903111</v>
       </c>
       <c r="R14">
-        <v>10.84944670656</v>
+        <v>10.438621307128</v>
       </c>
       <c r="S14">
-        <v>0.002374696587943888</v>
+        <v>0.001483904551822025</v>
       </c>
       <c r="T14">
-        <v>0.001672845903254382</v>
+        <v>0.001565848047239081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.76216</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H15">
-        <v>17.52432</v>
+        <v>126.914872</v>
       </c>
       <c r="I15">
-        <v>0.04523650132067659</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J15">
-        <v>0.03061937196726285</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>9.776603999999999</v>
       </c>
       <c r="O15">
-        <v>0.8289736543672389</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P15">
-        <v>0.8627426479250582</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q15">
-        <v>28.55472283488</v>
+        <v>137.8662716949653</v>
       </c>
       <c r="R15">
-        <v>171.32833700928</v>
+        <v>1240.796445254688</v>
       </c>
       <c r="S15">
-        <v>0.0374998678105897</v>
+        <v>0.1763856968104344</v>
       </c>
       <c r="T15">
-        <v>0.02641663804883865</v>
+        <v>0.1861259867236049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>42.30495733333333</v>
+      </c>
+      <c r="H16">
+        <v>126.914872</v>
+      </c>
+      <c r="I16">
+        <v>0.206736568582078</v>
+      </c>
+      <c r="J16">
+        <v>0.2079991985184523</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>8.76216</v>
-      </c>
-      <c r="H16">
-        <v>17.52432</v>
-      </c>
-      <c r="I16">
-        <v>0.04523650132067659</v>
-      </c>
-      <c r="J16">
-        <v>0.03061937196726285</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.004351333333333333</v>
+        <v>0.5333405</v>
       </c>
       <c r="N16">
-        <v>0.013054</v>
+        <v>1.066681</v>
       </c>
       <c r="O16">
-        <v>0.001106869224130377</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P16">
-        <v>0.001151958545729551</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q16">
-        <v>0.03812707888</v>
+        <v>22.56294709663867</v>
       </c>
       <c r="R16">
-        <v>0.22876247328</v>
+        <v>135.377682579832</v>
       </c>
       <c r="S16">
-        <v>5.007089111919006E-05</v>
+        <v>0.02886696721982157</v>
       </c>
       <c r="T16">
-        <v>3.527224720256029E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>8.76216</v>
-      </c>
-      <c r="H17">
-        <v>17.52432</v>
-      </c>
-      <c r="I17">
-        <v>0.04523650132067659</v>
-      </c>
-      <c r="J17">
-        <v>0.03061937196726285</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.4616195</v>
-      </c>
-      <c r="N17">
-        <v>0.923239</v>
-      </c>
-      <c r="O17">
-        <v>0.117424333800012</v>
-      </c>
-      <c r="P17">
-        <v>0.0814718136816918</v>
-      </c>
-      <c r="Q17">
-        <v>4.04478391812</v>
-      </c>
-      <c r="R17">
-        <v>16.17913567248</v>
-      </c>
-      <c r="S17">
-        <v>0.005311866031023814</v>
-      </c>
-      <c r="T17">
-        <v>0.002494615767967256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>19.589352</v>
-      </c>
-      <c r="H18">
-        <v>58.768056</v>
-      </c>
-      <c r="I18">
-        <v>0.1011341664177781</v>
-      </c>
-      <c r="J18">
-        <v>0.1026824987478506</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.2063693333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.619108</v>
-      </c>
-      <c r="O18">
-        <v>0.05249514260861875</v>
-      </c>
-      <c r="P18">
-        <v>0.05463357984752036</v>
-      </c>
-      <c r="Q18">
-        <v>4.042641512672</v>
-      </c>
-      <c r="R18">
-        <v>36.383773614048</v>
-      </c>
-      <c r="S18">
-        <v>0.005309052488705044</v>
-      </c>
-      <c r="T18">
-        <v>0.005609912494283606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>19.589352</v>
-      </c>
-      <c r="H19">
-        <v>58.768056</v>
-      </c>
-      <c r="I19">
-        <v>0.1011341664177781</v>
-      </c>
-      <c r="J19">
-        <v>0.1026824987478506</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>3.258868</v>
-      </c>
-      <c r="N19">
-        <v>9.776603999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.8289736543672389</v>
-      </c>
-      <c r="P19">
-        <v>0.8627426479250582</v>
-      </c>
-      <c r="Q19">
-        <v>63.839112373536</v>
-      </c>
-      <c r="R19">
-        <v>574.5520113618239</v>
-      </c>
-      <c r="S19">
-        <v>0.08383755951673001</v>
-      </c>
-      <c r="T19">
-        <v>0.0885885708652821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>19.589352</v>
-      </c>
-      <c r="H20">
-        <v>58.768056</v>
-      </c>
-      <c r="I20">
-        <v>0.1011341664177781</v>
-      </c>
-      <c r="J20">
-        <v>0.1026824987478506</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.004351333333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.013054</v>
-      </c>
-      <c r="O20">
-        <v>0.001106869224130377</v>
-      </c>
-      <c r="P20">
-        <v>0.001151958545729551</v>
-      </c>
-      <c r="Q20">
-        <v>0.085239800336</v>
-      </c>
-      <c r="R20">
-        <v>0.767158203024</v>
-      </c>
-      <c r="S20">
-        <v>0.0001119422963159185</v>
-      </c>
-      <c r="T20">
-        <v>0.0001182859819294504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>19.589352</v>
-      </c>
-      <c r="H21">
-        <v>58.768056</v>
-      </c>
-      <c r="I21">
-        <v>0.1011341664177781</v>
-      </c>
-      <c r="J21">
-        <v>0.1026824987478506</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.4616195</v>
-      </c>
-      <c r="N21">
-        <v>0.923239</v>
-      </c>
-      <c r="O21">
-        <v>0.117424333800012</v>
-      </c>
-      <c r="P21">
-        <v>0.0814718136816918</v>
-      </c>
-      <c r="Q21">
-        <v>9.042826875564002</v>
-      </c>
-      <c r="R21">
-        <v>54.25696125338401</v>
-      </c>
-      <c r="S21">
-        <v>0.01187561211602715</v>
-      </c>
-      <c r="T21">
-        <v>0.008365729406355438</v>
+        <v>0.02030736374760823</v>
       </c>
     </row>
   </sheetData>
